--- a/Excel/res/services/File/Upload/Upload.xlsx
+++ b/Excel/res/services/File/Upload/Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17AA56D-1614-4E43-B5E0-CCD6B94E8B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C69F637-330D-C34C-9006-F351934A4F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -35,43 +35,7 @@
     <author>贾世洋</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4F29BD80-14BF-C34B-B845-159E19A31286}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不要填内容</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>第一列是用来分割步骤的</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
       <text>
         <r>
           <rPr>
@@ -85,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
       <text>
         <r>
           <rPr>
@@ -188,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sPublicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,26 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins的本质也是命令行驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sSubResFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sProjectFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子服务资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,8 +189,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSS上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;projectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;publicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;subResFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;localFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;accessKeyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;accessKeySecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;endPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;bucketName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;l&gt;filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;remoteFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{</t>
+      <t>{s</t>
     </r>
     <r>
       <rPr>
@@ -258,7 +294,7 @@
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
       </rPr>
-      <t>sSubResFolderPath</t>
+      <t>ubResFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -273,96 +309,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lFilters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remote/test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLocalFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sAccessKeySecret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sBucketName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sAccessKeyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sEndPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sRemoteFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSS上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,14 +345,6 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -454,7 +398,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,18 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -663,25 +595,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,13 +629,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,10 +659,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,9 +677,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,16 +710,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1140,236 +1057,220 @@
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="21" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="D13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="E15" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="32"/>
+      <c r="E16" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D17:E17"/>
+  <mergeCells count="17">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" display="http://oss-cn-beijing.aliyuncs.com" xr:uid="{3FD4066B-31C6-9246-B028-C68A13349BFB}"/>
+    <hyperlink ref="D12" r:id="rId1" display="http://oss-cn-beijing.aliyuncs.com" xr:uid="{3FD4066B-31C6-9246-B028-C68A13349BFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Excel/res/services/File/Upload/Upload.xlsx
+++ b/Excel/res/services/File/Upload/Upload.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C69F637-330D-C34C-9006-F351934A4F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA86E5-63F6-1446-A4EA-D66B4A8A171E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="OSS&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -668,6 +668,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,9 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,18 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,11 +1061,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1074,11 +1074,11 @@
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
@@ -1088,10 +1088,10 @@
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13"/>
@@ -1101,10 +1101,10 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14"/>
@@ -1114,17 +1114,17 @@
       <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1133,20 +1133,20 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="16"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
@@ -1156,10 +1156,10 @@
       <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11"/>
@@ -1169,10 +1169,10 @@
       <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
@@ -1182,10 +1182,10 @@
       <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
@@ -1195,10 +1195,10 @@
       <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
@@ -1208,26 +1208,26 @@
       <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1243,21 +1243,13 @@
       <c r="C16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C7:E7"/>
@@ -1267,6 +1259,14 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Excel/res/services/File/Upload/Upload.xlsx
+++ b/Excel/res/services/File/Upload/Upload.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA86E5-63F6-1446-A4EA-D66B4A8A171E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F464D4C-B84A-E540-810B-1B7AD15DA07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
+    <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="OSS&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="FTP&lt;cmd&gt;" sheetId="2" r:id="rId2"/>
+    <sheet name="SFTP&lt;cmd&gt;" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -151,8 +153,252 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>贾世洋</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{19D7C356-1619-3245-86B8-8166D8E7BE01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>第一列的值做分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{0714338D-DD55-2A4B-A71A-4807974C0D3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>运行环境</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __folder__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        Execl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所在的文件夹</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __pwd__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行命令的路径</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>贾世洋</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EB05928C-E671-4341-B381-4238D5F45827}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>第一列的值做分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{CE2F49D2-CD5A-F04A-AA34-5282D7AAD847}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>运行环境</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __folder__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        Execl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所在的文件夹</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __pwd__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行命令的路径</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +553,114 @@
       </rPr>
       <t>}/source/</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ftpHost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ftpUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ftpPassWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ftpFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ftpSubFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级目标文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级目标文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;upToFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传到那个路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;pKeyFilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFTP上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +752,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +831,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -604,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +1037,57 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -683,53 +1100,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,7 +1424,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1061,11 +1436,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1074,11 +1449,11 @@
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12"/>
@@ -1088,10 +1463,10 @@
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13"/>
@@ -1101,10 +1476,10 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14"/>
@@ -1114,17 +1489,17 @@
       <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1133,20 +1508,20 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="16"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
@@ -1156,78 +1531,78 @@
       <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1243,13 +1618,21 @@
       <c r="C16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C7:E7"/>
@@ -1259,14 +1642,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1276,4 +1651,428 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9353C2-7A34-014A-BA2D-DBEC98A2DD95}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473043FC-0DEF-6E4D-9D7B-114E926951D7}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>